--- a/comment/DSC-iTC-CommentsMatrix.xlsx
+++ b/comment/DSC-iTC-CommentsMatrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DSC-iTC\DSC-iTC.github.io\public-review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DSC-iTC\DSC-iTC.github.io\comment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DFD2E7-B819-48EA-8B60-C5F7B54B7B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF646BCB-56D5-4E2B-886F-6DA65E32562C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Review" sheetId="2" r:id="rId1"/>
@@ -81,6 +81,91 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Type "S" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for substantive comments, or issues that would be significant enough to warrant your agency's concern should the policy go forward as is. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Type "C"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for critical comments, or issues that would cause your agency to non-concur</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments: </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Type in your proposed changes, providing specific suggested language.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Recommended language must come with all proposed changes.</t>
+    </r>
+  </si>
+  <si>
+    <t>Rationale:</t>
+  </si>
+  <si>
+    <t>Provide an explanation / justification for your proposed changes.</t>
+  </si>
+  <si>
+    <t>The following section describes the expected information in the Review matrix.</t>
+  </si>
+  <si>
+    <t>Section, Paragraph/Req</t>
+  </si>
+  <si>
+    <t>Enough information to make clear where the comment refers to within the document.</t>
+  </si>
+  <si>
+    <t>Provide the POC's name and the name, organization.</t>
+  </si>
+  <si>
+    <t>Email of Reviewer:</t>
+  </si>
+  <si>
+    <t>Review Comments Matrix for:</t>
+  </si>
+  <si>
+    <t>DOCUMENT</t>
+  </si>
+  <si>
+    <t>cPP</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>The specific document the comments are for should be selected in G1. The fields are:
+- cPP - for the PP-Module
+- SD - for the Supporting Document</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Type </t>
     </r>
     <r>
@@ -100,93 +185,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> if the comment isadministrative or editorial, or if the issue is not significant enough to warrant your objection to the policy going forward.</t>
+      <t xml:space="preserve"> if the comment is administrative or editorial, or if the issue is not significant enough to warrant your objection to the policy going forward.</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Type "S" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">for substantive comments, or issues that would be significant enough to warrant your agency's concern should the policy go forward as is. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Type "C"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for critical comments, or issues that would cause your agency to non-concur</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments: </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Type in your proposed changes, providing specific suggested language.  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Recommended language must come with all proposed changes.</t>
-    </r>
-  </si>
-  <si>
-    <t>Rationale:</t>
-  </si>
-  <si>
-    <t>Provide an explanation / justification for your proposed changes.</t>
-  </si>
-  <si>
-    <t>The following section describes the expected information in the Review matrix.</t>
-  </si>
-  <si>
-    <t>Section, Paragraph/Req</t>
-  </si>
-  <si>
-    <t>Enough information to make clear where the comment refers to within the document.</t>
-  </si>
-  <si>
-    <t>Provide the POC's name and the name, organization.</t>
-  </si>
-  <si>
-    <t>Email of Reviewer:</t>
-  </si>
-  <si>
-    <t>Review Comments Matrix for:</t>
-  </si>
-  <si>
-    <t>DOCUMENT</t>
-  </si>
-  <si>
-    <t>cPP</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>The specific document the comments are for should be selected in G1. The fields are:
-- cPP - for the PP-Module
-- SD - for the Supporting Document</t>
   </si>
 </sst>
 </file>
@@ -789,7 +789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -805,7 +805,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.85">
       <c r="A1" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -813,7 +813,7 @@
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A2" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -1061,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1074,15 +1074,15 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A3" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.5">
@@ -1095,10 +1095,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.5">
@@ -1106,7 +1106,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
@@ -1114,44 +1114,44 @@
         <v>12</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A8" s="18"/>
       <c r="B8" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9" s="19"/>
       <c r="B9" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.9" x14ac:dyDescent="0.5">
       <c r="A10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
